--- a/Zeitmanagement.xlsx
+++ b/Zeitmanagement.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\GitHub\ohfound\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5858252B-1AC2-4A61-93FF-B1EC73C772FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D99D797B-8A32-4722-B035-82731480896E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E0D1F69C-7C4A-4D03-A1A4-E7559FC572AE}"/>
+    <workbookView minimized="1" xWindow="1380" yWindow="2145" windowWidth="21600" windowHeight="11385" xr2:uid="{E0D1F69C-7C4A-4D03-A1A4-E7559FC572AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="9">
-  <si>
-    <t>Zeitmanagement JavaFX Djedovic Andrea</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="10">
   <si>
     <t>Datum</t>
   </si>
@@ -60,6 +57,12 @@
   </si>
   <si>
     <t xml:space="preserve">Summe: </t>
+  </si>
+  <si>
+    <t>Zeitmanagement JavaFX &amp; Android Djedovic Andrea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zuhasue </t>
   </si>
 </sst>
 </file>
@@ -100,10 +103,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -418,196 +421,284 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB3A636A-A647-4D6B-BF44-D80806B33A12}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A3" sqref="A3:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="A1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2"/>
+      <c r="D3" s="3"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>44165</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>44166</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>44167</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>44168</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>44172</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>44181</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>44183</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>44186</v>
       </c>
       <c r="B11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>43832</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12">
         <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>43833</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>43835</v>
       </c>
       <c r="B14" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C14">
         <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>43838</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>43843</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>43845</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17">
         <v>2</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>43878</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+    </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>8</v>
+      <c r="A19" s="2">
+        <v>43881</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
       </c>
       <c r="C19">
-        <f>SUM(C4:C18)</f>
-        <v>56</v>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>43883</v>
+      </c>
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>43906</v>
+      </c>
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>43907</v>
+      </c>
+      <c r="B22" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>43908</v>
+      </c>
+      <c r="B23" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>43925</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>43927</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27">
+        <f>SUM(C4:C25)</f>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
